--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218CD7CF-1CE2-4057-9364-5757119BD9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>db structure</t>
   </si>
@@ -28,12 +29,27 @@
   </si>
   <si>
     <t>remove Users from layout for not admin</t>
+  </si>
+  <si>
+    <t>localtime works correctly?</t>
+  </si>
+  <si>
+    <t>sale items refer to several tables, like 1 sale &lt;=&gt; 1 musical instrument, 1 note edition, 1 accesory</t>
+  </si>
+  <si>
+    <t>why use application user instead of identityuser</t>
+  </si>
+  <si>
+    <t>return purchase</t>
+  </si>
+  <si>
+    <t>reserved sale, so that sale could have a statuses like "sold" "reserved" "returned"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,16 +360,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -371,6 +387,31 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218CD7CF-1CE2-4057-9364-5757119BD9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC380CD-3C35-4E70-8B4F-426D8B5C6364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>db structure</t>
   </si>
@@ -40,10 +40,16 @@
     <t>why use application user instead of identityuser</t>
   </si>
   <si>
-    <t>return purchase</t>
-  </si>
-  <si>
     <t>reserved sale, so that sale could have a statuses like "sold" "reserved" "returned"</t>
+  </si>
+  <si>
+    <t>purchase return</t>
+  </si>
+  <si>
+    <t>how to bind IdentityRole(s) with real mysql roles? (probably it's so hard to implement)</t>
+  </si>
+  <si>
+    <t>do i need it on the whole? all queries are server-side.</t>
   </si>
 </sst>
 </file>
@@ -361,55 +367,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC380CD-3C35-4E70-8B4F-426D8B5C6364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B2ED8D-5397-4032-8E8C-E57DEF66FDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,8 +369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B2ED8D-5397-4032-8E8C-E57DEF66FDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,12 +64,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,8 +90,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -366,11 +372,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -380,7 +386,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -390,7 +396,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -400,7 +406,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -429,5 +435,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F77CD1-EE71-4494-9705-558155799048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>db structure</t>
   </si>
@@ -49,12 +50,18 @@
   </si>
   <si>
     <t>do i need it on the whole? all queries are server-side.</t>
+  </si>
+  <si>
+    <t>&amp;__Invariant when using asp-for=""</t>
+  </si>
+  <si>
+    <t>why pass data using ViewBag instead of passing model?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,11 +379,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,6 +440,16 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F77CD1-EE71-4494-9705-558155799048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CCF454-0C90-49BE-A5CD-6F3506AF2060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>db structure</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>why pass data using ViewBag instead of passing model?</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>tag helpers</t>
+  </si>
+  <si>
+    <t>next page for list of goods</t>
   </si>
 </sst>
 </file>
@@ -80,7 +89,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,8 +455,23 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CCF454-0C90-49BE-A5CD-6F3506AF2060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF975D4-6CE7-4889-B212-52C0E5CE1009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>db structure</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>next page for list of goods</t>
+  </si>
+  <si>
+    <t>ajax for adding goods to cart</t>
+  </si>
+  <si>
+    <t>partial search (do i need index page for goods?)</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +480,16 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF975D4-6CE7-4889-B212-52C0E5CE1009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF76DA85-EB30-4CAC-8A0B-980B2ED3B39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>db structure</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>partial search (do i need index page for goods?)</t>
+  </si>
+  <si>
+    <t>where to put scripts and why to use @sectin Scripts</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,6 +493,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF76DA85-EB30-4CAC-8A0B-980B2ED3B39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>db structure</t>
   </si>
@@ -74,12 +73,18 @@
   </si>
   <si>
     <t>where to put scripts and why to use @sectin Scripts</t>
+  </si>
+  <si>
+    <t>cart and goods search should have different goods list and cart removing mustn't be async, ??the description in cart should be more detailed??</t>
+  </si>
+  <si>
+    <t>roles inheritance (all types of users are consultants)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +104,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -115,9 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -397,11 +416,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +488,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -484,7 +503,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -494,8 +513,18 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50821EE-5397-40F5-97FE-EB00A3575896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>db structure</t>
   </si>
@@ -79,12 +80,15 @@
   </si>
   <si>
     <t>roles inheritance (all types of users are consultants)</t>
+  </si>
+  <si>
+    <t>bind sales_view to sales and to ef core</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -416,11 +420,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,6 +531,11 @@
         <v>19</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50821EE-5397-40F5-97FE-EB00A3575896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2E6DF1-E93D-4DBE-A3FE-8EB47E41ABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>db structure</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>bind sales_view to sales and to ef core</t>
+  </si>
+  <si>
+    <t>Guid in ef core</t>
   </si>
 </sst>
 </file>
@@ -421,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,6 +539,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2E6DF1-E93D-4DBE-A3FE-8EB47E41ABDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953219D7-12ED-4A65-870D-EB4B586EC7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>db structure</t>
   </si>
@@ -86,6 +86,18 @@
   </si>
   <si>
     <t>Guid in ef core</t>
+  </si>
+  <si>
+    <t>http context: is it better to be in controller or in service layer?</t>
+  </si>
+  <si>
+    <t>paid by: card, cash, any</t>
+  </si>
+  <si>
+    <t>when to call dto and when to call model</t>
+  </si>
+  <si>
+    <t>html and DRY principle??</t>
   </si>
 </sst>
 </file>
@@ -424,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,6 +556,26 @@
         <v>21</v>
       </c>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953219D7-12ED-4A65-870D-EB4B586EC7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30372F8-8E77-4757-B134-BC86EF78F656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
     <t>when to call dto and when to call model</t>
   </si>
   <si>
-    <t>html and DRY principle??</t>
+    <t>html and DRY principle?? (in its defense i'll say that html is not a programming language at least)</t>
   </si>
 </sst>
 </file>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30372F8-8E77-4757-B134-BC86EF78F656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6FE9A0-B14A-445D-B72B-527EE573BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>db structure</t>
   </si>
@@ -97,7 +97,16 @@
     <t>when to call dto and when to call model</t>
   </si>
   <si>
-    <t>html and DRY principle?? (in its defense i'll say that html is not a programming language at least)</t>
+    <t>html and DRY principle?? (in its defense i'll say that html is not a programming language after all)</t>
+  </si>
+  <si>
+    <t>how to edit log in page</t>
+  </si>
+  <si>
+    <t>don't like async everywhere in service layer</t>
+  </si>
+  <si>
+    <t>[.. ]</t>
   </si>
 </sst>
 </file>
@@ -436,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,13 +576,28 @@
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6FE9A0-B14A-445D-B72B-527EE573BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4810DCCC-5668-412D-811E-F73151360193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>db structure</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>[.. ]</t>
+  </si>
+  <si>
+    <t>add pictures to goods with pack of premade pictures of different instruments with different colors</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,6 +603,11 @@
         <v>28</v>
       </c>
     </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4810DCCC-5668-412D-811E-F73151360193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02454737-1541-47F0-8BB3-99F606D0B202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>db structure</t>
   </si>
@@ -100,9 +100,6 @@
     <t>html and DRY principle?? (in its defense i'll say that html is not a programming language after all)</t>
   </si>
   <si>
-    <t>how to edit log in page</t>
-  </si>
-  <si>
     <t>don't like async everywhere in service layer</t>
   </si>
   <si>
@@ -110,6 +107,15 @@
   </si>
   <si>
     <t>add pictures to goods with pack of premade pictures of different instruments with different colors</t>
+  </si>
+  <si>
+    <t>postponed payment???</t>
+  </si>
+  <si>
+    <t>how to edit "log in" page</t>
+  </si>
+  <si>
+    <t>use sale_goods linking table to get Sale having ICollection&lt;Goods&gt; relation</t>
   </si>
 </sst>
 </file>
@@ -448,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +565,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -590,22 +596,32 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02454737-1541-47F0-8BB3-99F606D0B202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>db structure</t>
   </si>
@@ -116,12 +115,15 @@
   </si>
   <si>
     <t>use sale_goods linking table to get Sale having ICollection&lt;Goods&gt; relation</t>
+  </si>
+  <si>
+    <t>reservation date is out of date like were reserved 3 weeks ago but the maximum reservation period is 2 weeks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,8 +455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
@@ -624,6 +626,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E0C004-C8B7-430D-BFD7-68708181C174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>db structure</t>
   </si>
@@ -118,12 +119,15 @@
   </si>
   <si>
     <t>reservation date is out of date like were reserved 3 weeks ago but the maximum reservation period is 2 weeks</t>
+  </si>
+  <si>
+    <t>move sale's goods to center of sale, so that card is divided into 3 equal parts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,6 +635,11 @@
         <v>32</v>
       </c>
     </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E0C004-C8B7-430D-BFD7-68708181C174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DE8392-8791-46E7-92A6-22AE108C2E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>db structure</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>move sale's goods to center of sale, so that card is divided into 3 equal parts</t>
+  </si>
+  <si>
+    <t>extra third column in linking table for many-to-many. solution: add linking tables to database, specify many-to-many via fluentAPI using UsingEntity</t>
+  </si>
+  <si>
+    <t>why to use virtual everywhere in ef core?</t>
+  </si>
+  <si>
+    <t>TPH (table per hierarchy) looks like a suitable approach for my database (one goods table)</t>
   </si>
 </sst>
 </file>
@@ -460,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="135.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -640,6 +649,21 @@
         <v>33</v>
       </c>
     </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DE8392-8791-46E7-92A6-22AE108C2E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6BFB0B-8CB2-4B73-AA65-E30C7FB2CE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
     <t>why to use virtual everywhere in ef core?</t>
   </si>
   <si>
-    <t>TPH (table per hierarchy) looks like a suitable approach for my database (one goods table)</t>
+    <t>TPH (table per hierarchy) looks like a suitable approach for my database (one goods table). OR table splitting</t>
   </si>
 </sst>
 </file>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6BFB0B-8CB2-4B73-AA65-E30C7FB2CE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29700080-C18D-4B05-BAFC-856D58E6FB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>db structure</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>TPH (table per hierarchy) looks like a suitable approach for my database (one goods table). OR table splitting</t>
+  </si>
+  <si>
+    <t>factory for goods creating</t>
   </si>
 </sst>
 </file>
@@ -469,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,6 +667,11 @@
         <v>36</v>
       </c>
     </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29700080-C18D-4B05-BAFC-856D58E6FB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E014AB32-2466-4592-AA2B-411FFA9DE5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>db structure</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>factory for goods creating</t>
+  </si>
+  <si>
+    <t>use correct verb for each request</t>
   </si>
 </sst>
 </file>
@@ -472,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,6 +675,11 @@
         <v>37</v>
       </c>
     </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E014AB32-2466-4592-AA2B-411FFA9DE5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84C9591-D564-433E-B9E1-08C54B2DF68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>db structure</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>use correct verb for each request</t>
+  </si>
+  <si>
+    <t>prevent parameters sending in form get action when value is null to make query string shorter</t>
+  </si>
+  <si>
+    <t>stock manager and admin can edit goods</t>
+  </si>
+  <si>
+    <t>validation IN PARTICULARLY, VALIDATE THAT FIELDS DON'T CONTAINT HTML TAGS</t>
   </si>
 </sst>
 </file>
@@ -475,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,6 +689,21 @@
         <v>38</v>
       </c>
     </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84C9591-D564-433E-B9E1-08C54B2DF68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84CE1ED-6381-4DB0-A0FB-56E62AE124F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>db structure</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>validation IN PARTICULARLY, VALIDATE THAT FIELDS DON'T CONTAINT HTML TAGS</t>
+  </si>
+  <si>
+    <t>when to use GET and POST in form when you send no data but this request updates the state of application (actually, not of application but of server file system. it creates some files, not related to db directly)</t>
   </si>
 </sst>
 </file>
@@ -199,11 +202,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="135.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="135.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -502,7 +514,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -512,7 +524,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -522,22 +534,22 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -545,7 +557,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -560,12 +572,12 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -575,22 +587,22 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -600,17 +612,17 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -620,88 +632,93 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84CE1ED-6381-4DB0-A0FB-56E62AE124F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E41D7D1-81DD-4B0F-A643-3CA9446DF1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>db structure</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>when to use GET and POST in form when you send no data but this request updates the state of application (actually, not of application but of server file system. it creates some files, not related to db directly)</t>
+  </si>
+  <si>
+    <t>reports in different formats (pdf, csv, xlsx) including html-form</t>
+  </si>
+  <si>
+    <t>MY OWN MUSIC ON THE BACKGROUND</t>
   </si>
 </sst>
 </file>
@@ -164,7 +170,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +195,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -202,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -214,6 +226,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -496,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +572,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -719,6 +734,16 @@
     <row r="42" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E41D7D1-81DD-4B0F-A643-3CA9446DF1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1D37CF-41F1-4E52-8209-9D236F924BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>db structure</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>MY OWN MUSIC ON THE BACKGROUND</t>
+  </si>
+  <si>
+    <t>incremental kopia zapasowa, should i use two db - the first one for identity and the second one for business data? or they may overlap?</t>
+  </si>
+  <si>
+    <t>if database is corrupted, then send admin immediately to backups</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,6 +752,16 @@
         <v>44</v>
       </c>
     </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1D37CF-41F1-4E52-8209-9D236F924BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFFAB77-1AD3-46D3-BEAA-53E7C7DA5696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>db structure</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>if database is corrupted, then send admin immediately to backups</t>
+  </si>
+  <si>
+    <t>strange tiny shift like Год выпуска [___] and Год выпуска   [___] In addGoodsToWarehouse</t>
+  </si>
+  <si>
+    <t>sort specific types</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,6 +768,16 @@
         <v>46</v>
       </c>
     </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFFAB77-1AD3-46D3-BEAA-53E7C7DA5696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9910B8-9E6D-4864-ACF2-777A3331998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>db structure</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>sort specific types</t>
+  </si>
+  <si>
+    <t>rewrite the database strucutre an 19238478th time. now add Count to goods. and handle the relating stuff.</t>
   </si>
 </sst>
 </file>
@@ -523,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,6 +781,11 @@
         <v>48</v>
       </c>
     </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/OuterData/checklist.xlsx
+++ b/OuterData/checklist.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9910B8-9E6D-4864-ACF2-777A3331998D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2634857-30FE-4BEB-B216-BA009020220D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>db structure</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>rewrite the database strucutre an 19238478th time. now add Count to goods. and handle the relating stuff.</t>
+  </si>
+  <si>
+    <t>backup and sales_view works wrong?</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,6 +789,11 @@
         <v>49</v>
       </c>
     </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
